--- a/DatosDeVentasLimpios.xlsx
+++ b/DatosDeVentasLimpios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\ACAS\9 semestre\Primer bloque\Inteligencia de negocios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82D102A-0536-4FB8-AB22-B26F87846C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC520085-25F6-4FC6-969B-CD8A5B3FF576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="220">
   <si>
     <t>Region</t>
   </si>
@@ -1027,7 +1027,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FBD98DE7-0BD3-45F7-A05C-A52F65B25601}" name="Tabla1" displayName="Tabla1" ref="A1:F197" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:F197" xr:uid="{FBD98DE7-0BD3-45F7-A05C-A52F65B25601}"/>
+  <autoFilter ref="A1:F197" xr:uid="{FBD98DE7-0BD3-45F7-A05C-A52F65B25601}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="56636"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{15EDEABA-04DC-4AD6-A274-FE7427469756}" name="Region" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{C9F428B6-2EC5-458F-B714-B090C075962E}" name="Producto" dataDxfId="4"/>
@@ -1353,7 +1359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1373,7 +1379,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1393,7 +1399,7 @@
         <v>45313</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1413,7 +1419,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1433,7 +1439,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1453,7 +1459,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1473,7 +1479,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1493,7 +1499,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1513,7 +1519,7 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1533,7 +1539,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1553,7 +1559,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1573,7 +1579,7 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1593,7 +1599,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1613,7 +1619,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1633,7 +1639,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -1653,7 +1659,7 @@
         <v>45312</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1673,7 +1679,7 @@
         <v>45306</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1693,7 +1699,7 @@
         <v>45312</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1713,7 +1719,7 @@
         <v>45307</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -1733,7 +1739,7 @@
         <v>45306</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -1753,7 +1759,7 @@
         <v>45321</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -1773,7 +1779,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1793,7 +1799,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -1813,7 +1819,7 @@
         <v>45303</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -1833,7 +1839,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
@@ -1853,7 +1859,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1873,7 +1879,7 @@
         <v>45295</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>19</v>
       </c>
@@ -1893,7 +1899,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
@@ -1913,7 +1919,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>12</v>
       </c>
@@ -1933,7 +1939,7 @@
         <v>45308</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
@@ -1953,7 +1959,7 @@
         <v>45321</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
@@ -1973,7 +1979,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>23</v>
       </c>
@@ -1993,7 +1999,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>12</v>
       </c>
@@ -2013,7 +2019,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
@@ -2033,7 +2039,7 @@
         <v>45312</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -2053,7 +2059,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -2073,7 +2079,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -2093,7 +2099,7 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -2113,7 +2119,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>23</v>
       </c>
@@ -2133,7 +2139,7 @@
         <v>45308</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>12</v>
       </c>
@@ -2153,7 +2159,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>19</v>
       </c>
@@ -2173,7 +2179,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>19</v>
       </c>
@@ -2193,7 +2199,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>21</v>
       </c>
@@ -2213,7 +2219,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>19</v>
       </c>
@@ -2233,7 +2239,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>12</v>
       </c>
@@ -2253,7 +2259,7 @@
         <v>45309</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>23</v>
       </c>
@@ -2273,7 +2279,7 @@
         <v>45312</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>23</v>
       </c>
@@ -2293,7 +2299,7 @@
         <v>45308</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>6</v>
       </c>
@@ -2313,7 +2319,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>23</v>
       </c>
@@ -2333,7 +2339,7 @@
         <v>45318</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>19</v>
       </c>
@@ -2353,7 +2359,7 @@
         <v>45312</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>23</v>
       </c>
@@ -2373,7 +2379,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>12</v>
       </c>
@@ -2393,7 +2399,7 @@
         <v>45318</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>21</v>
       </c>
@@ -2413,7 +2419,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>21</v>
       </c>
@@ -2433,7 +2439,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>6</v>
       </c>
@@ -2453,7 +2459,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>23</v>
       </c>
@@ -2473,7 +2479,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>12</v>
       </c>
@@ -2493,7 +2499,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>23</v>
       </c>
@@ -2513,7 +2519,7 @@
         <v>45312</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>12</v>
       </c>
@@ -2533,7 +2539,7 @@
         <v>45315</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>21</v>
       </c>
@@ -2553,7 +2559,7 @@
         <v>45318</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>19</v>
       </c>
@@ -2573,7 +2579,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>19</v>
       </c>
@@ -2593,7 +2599,7 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>6</v>
       </c>
@@ -2613,7 +2619,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>23</v>
       </c>
@@ -2633,7 +2639,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>21</v>
       </c>
@@ -2653,7 +2659,7 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>23</v>
       </c>
@@ -2673,7 +2679,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>23</v>
       </c>
@@ -2693,7 +2699,7 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>6</v>
       </c>
@@ -2713,7 +2719,7 @@
         <v>45321</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>21</v>
       </c>
@@ -2733,7 +2739,7 @@
         <v>45308</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>23</v>
       </c>
@@ -2753,7 +2759,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>6</v>
       </c>
@@ -2773,7 +2779,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>19</v>
       </c>
@@ -2793,7 +2799,7 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>6</v>
       </c>
@@ -2813,7 +2819,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>12</v>
       </c>
@@ -2833,7 +2839,7 @@
         <v>45295</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>19</v>
       </c>
@@ -2853,7 +2859,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>19</v>
       </c>
@@ -2873,7 +2879,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>6</v>
       </c>
@@ -2893,7 +2899,7 @@
         <v>45319</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>12</v>
       </c>
@@ -2913,7 +2919,7 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>12</v>
       </c>
@@ -2933,7 +2939,7 @@
         <v>45313</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>12</v>
       </c>
@@ -2953,7 +2959,7 @@
         <v>45306</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>21</v>
       </c>
@@ -2973,7 +2979,7 @@
         <v>45315</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>12</v>
       </c>
@@ -2993,7 +2999,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>12</v>
       </c>
@@ -3013,7 +3019,7 @@
         <v>45318</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>21</v>
       </c>
@@ -3033,7 +3039,7 @@
         <v>45315</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>21</v>
       </c>
@@ -3053,7 +3059,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>23</v>
       </c>
@@ -3073,7 +3079,7 @@
         <v>45308</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>6</v>
       </c>
@@ -3093,7 +3099,7 @@
         <v>45307</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>6</v>
       </c>
@@ -3113,7 +3119,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>23</v>
       </c>
@@ -3133,7 +3139,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>6</v>
       </c>
@@ -3153,7 +3159,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>19</v>
       </c>
@@ -3173,7 +3179,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>12</v>
       </c>
@@ -3193,7 +3199,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>6</v>
       </c>
@@ -3213,7 +3219,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>12</v>
       </c>
@@ -3233,7 +3239,7 @@
         <v>45295</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>19</v>
       </c>
@@ -3253,7 +3259,7 @@
         <v>45309</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>19</v>
       </c>
@@ -3273,7 +3279,7 @@
         <v>45318</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>6</v>
       </c>
@@ -3293,7 +3299,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>21</v>
       </c>
@@ -3313,7 +3319,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>21</v>
       </c>
@@ -3333,7 +3339,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>21</v>
       </c>
@@ -3353,7 +3359,7 @@
         <v>45308</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>19</v>
       </c>
@@ -3373,7 +3379,7 @@
         <v>45295</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>6</v>
       </c>
@@ -3393,7 +3399,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>23</v>
       </c>
@@ -3413,7 +3419,7 @@
         <v>45315</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>12</v>
       </c>
@@ -3433,7 +3439,7 @@
         <v>45309</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>23</v>
       </c>
@@ -3453,7 +3459,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>12</v>
       </c>
@@ -3473,7 +3479,7 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>19</v>
       </c>
@@ -3493,7 +3499,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>6</v>
       </c>
@@ -3513,7 +3519,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>21</v>
       </c>
@@ -3533,7 +3539,7 @@
         <v>45300</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>21</v>
       </c>
@@ -3553,7 +3559,7 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>23</v>
       </c>
@@ -3573,7 +3579,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>21</v>
       </c>
@@ -3593,7 +3599,7 @@
         <v>45315</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>23</v>
       </c>
@@ -3613,7 +3619,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>6</v>
       </c>
@@ -3633,7 +3639,7 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>21</v>
       </c>
@@ -3653,7 +3659,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>6</v>
       </c>
@@ -3673,7 +3679,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>19</v>
       </c>
@@ -3693,7 +3699,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>21</v>
       </c>
@@ -3713,7 +3719,7 @@
         <v>45321</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>21</v>
       </c>
@@ -3733,7 +3739,7 @@
         <v>45300</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>21</v>
       </c>
@@ -3753,7 +3759,7 @@
         <v>45315</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>23</v>
       </c>
@@ -3773,7 +3779,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>12</v>
       </c>
@@ -3793,7 +3799,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>6</v>
       </c>
@@ -3813,7 +3819,7 @@
         <v>45319</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>21</v>
       </c>
@@ -3833,7 +3839,7 @@
         <v>45308</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>6</v>
       </c>
@@ -3853,7 +3859,7 @@
         <v>45300</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>23</v>
       </c>
@@ -3873,7 +3879,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>19</v>
       </c>
@@ -3893,7 +3899,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>19</v>
       </c>
@@ -3913,7 +3919,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>12</v>
       </c>
@@ -3933,7 +3939,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>6</v>
       </c>
@@ -3953,7 +3959,7 @@
         <v>45321</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>19</v>
       </c>
@@ -3973,7 +3979,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>23</v>
       </c>
@@ -3993,7 +3999,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>21</v>
       </c>
@@ -4013,7 +4019,7 @@
         <v>45319</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>12</v>
       </c>
@@ -4033,7 +4039,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>21</v>
       </c>
@@ -4053,7 +4059,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>19</v>
       </c>
@@ -4354,7 +4360,9 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="2"/>
+      <c r="A152" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B152" s="1" t="s">
         <v>32</v>
       </c>
@@ -4372,7 +4380,9 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="2"/>
+      <c r="A153" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="B153" s="1" t="s">
         <v>29</v>
       </c>
@@ -4790,7 +4800,9 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="2"/>
+      <c r="A174" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B174" s="1" t="s">
         <v>13</v>
       </c>
@@ -4868,7 +4880,9 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="2"/>
+      <c r="A178" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B178" s="1" t="s">
         <v>24</v>
       </c>
